--- a/analysis_specifications/analysis2_andreas_2.xlsx
+++ b/analysis_specifications/analysis2_andreas_2.xlsx
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
